--- a/OW_nais_einheiten_unique_bh_20241128_mf_bh2.xlsx
+++ b/OW_nais_einheiten_unique_bh_20241128_mf_bh2.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCW24sensi\OW__Herbst_anfragen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6489E8-F4BF-4DB5-9C43-AE62FA5669F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D305C-E5DD-4D8C-A0FD-A49BD701753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55380" yWindow="630" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="128">
-  <si>
-    <t>Einheit Obwalden</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="132">
   <si>
     <t>NaiS_LFI</t>
   </si>
@@ -384,18 +384,12 @@
     <t>bei entwässerten Flächen</t>
   </si>
   <si>
-    <t>Bemerkung</t>
-  </si>
-  <si>
     <t>co sm um</t>
   </si>
   <si>
     <t>hm sa osa</t>
   </si>
   <si>
-    <t>NaiS</t>
-  </si>
-  <si>
     <t>27f</t>
   </si>
   <si>
@@ -418,6 +412,27 @@
   </si>
   <si>
     <t>29A</t>
+  </si>
+  <si>
+    <t>OW_Einheit</t>
+  </si>
+  <si>
+    <t>hs_alt</t>
+  </si>
+  <si>
+    <t>nais</t>
+  </si>
+  <si>
+    <t>Bemerkung1</t>
+  </si>
+  <si>
+    <t>Bemerkung2</t>
+  </si>
+  <si>
+    <t>53w</t>
+  </si>
+  <si>
+    <t>53(60*)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -497,11 +512,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -514,6 +540,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -816,1977 +852,2011 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014638C-3B99-445C-AFCE-581645DB9E5E}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>326</v>
       </c>
       <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8">
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>5</v>
       </c>
       <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>127</v>
+        <v>4</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" t="s">
-        <v>47</v>
+        <v>115</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" t="s">
-        <v>51</v>
+        <v>115</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>11</v>
       </c>
       <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
+      <c r="F53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>5001</v>
+      </c>
       <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>5002</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" t="s">
-        <v>114</v>
-      </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
       <c r="G57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="F59" s="8">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>213</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="G60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>5003</v>
+      </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>231</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
         <v>67</v>
       </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" t="s">
-        <v>123</v>
+        <v>70</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>5004</v>
+      </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>236</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F67" t="s">
-        <v>72</v>
-      </c>
       <c r="G67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>243</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F71" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>5005</v>
+      </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
-      </c>
-      <c r="F73" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>269</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>282</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77">
+        <v>65</v>
+      </c>
+      <c r="F77" s="8">
         <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78">
+        <v>65</v>
+      </c>
+      <c r="F78" s="8">
         <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>277</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
+        <v>2</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>279</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s">
         <v>65</v>
       </c>
-      <c r="F80" t="s">
-        <v>82</v>
-      </c>
-      <c r="G80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>283</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s">
         <v>65</v>
       </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>289</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s">
         <v>65</v>
       </c>
-      <c r="F83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
-      </c>
-      <c r="F84" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="G84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>295</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" t="s">
-        <v>89</v>
+        <v>65</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="G85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>296</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="G86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>306</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>310</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
+        <v>14</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>312</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>314</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
+        <v>14</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>315</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>317</v>
       </c>
       <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>5006</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C94" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>96</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
-      <c r="B95" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
         <v>10</v>
       </c>
+      <c r="F95" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>322</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>323</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{1014638C-3B99-445C-AFCE-581645DB9E5E}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2797,11 +2867,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
